--- a/산출물_프로젝트_근태 관리/설계/AND-03.프로그램목록/20201005_근태관리_AND-03_프로그램목록_v2.0.xlsx
+++ b/산출물_프로젝트_근태 관리/설계/AND-03.프로그램목록/20201005_근태관리_AND-03_프로그램목록_v2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\ims_문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물_프로젝트_근태 관리\설계\AND-03.프로그램목록\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="196">
   <si>
     <t>문서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성명, 아이디, 조직부서, 전화번호, 재직구분 조건으로 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,11 +672,6 @@
   </si>
   <si>
     <t>윤상은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손성현
-조성현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,11 +915,6 @@
   </si>
   <si>
     <t>문세라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조성현
-손성현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -965,6 +951,16 @@
   </si>
   <si>
     <t>조유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황이성
+조성현
+손성현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명 조건으로 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,7 +1617,7 @@
     <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="41.25" x14ac:dyDescent="0.3">
@@ -1671,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1729,53 +1725,53 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="29">
         <v>44037</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="29">
         <v>44037</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="29">
         <v>44038</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1784,13 +1780,13 @@
         <v>44038</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,13 +1795,13 @@
         <v>44038</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1814,81 +1810,81 @@
         <v>44039</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="29">
         <v>44058</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="29">
         <v>44109</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="29">
         <v>44112</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="29">
         <v>44120</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2093,25 +2089,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" s="30">
         <v>44092</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2119,25 +2115,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G6" s="30">
         <v>44092</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2145,25 +2141,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G7" s="30">
         <v>44092</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2171,25 +2167,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="30">
         <v>44092</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,25 +2193,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G9" s="30">
         <v>44092</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2223,25 +2219,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="30">
+        <v>44092</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="G10" s="30">
-        <v>44092</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2249,25 +2245,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G11" s="30">
         <v>44092</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2275,25 +2271,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="30">
         <v>44092</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2301,155 +2297,155 @@
         <v>9</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="30">
         <v>44092</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="30">
         <v>44092</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="H14" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="30">
         <v>44092</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>12</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G16" s="30">
         <v>44092</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>13</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="30">
         <v>44092</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="H17" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G18" s="30">
         <v>44092</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2457,25 +2453,25 @@
         <v>15</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G19" s="30">
         <v>44092</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2483,25 +2479,25 @@
         <v>16</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G20" s="30">
         <v>44092</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2509,25 +2505,25 @@
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="G21" s="30">
         <v>44092</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2535,30 +2531,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G22" s="30">
         <v>44092</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2566,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2766,30 +2763,30 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="30">
         <v>44046</v>
@@ -2804,7 +2801,7 @@
         <v>44058</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -2815,7 +2812,7 @@
         <v>44050</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
@@ -2826,7 +2823,7 @@
         <v>44092</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
@@ -2842,30 +2839,30 @@
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" s="30">
         <v>44046</v>
@@ -2880,7 +2877,7 @@
         <v>44058</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
@@ -2891,7 +2888,7 @@
         <v>44050</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -2902,7 +2899,7 @@
         <v>44092</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
@@ -2918,30 +2915,30 @@
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="30">
         <v>44046</v>
@@ -2956,7 +2953,7 @@
         <v>44058</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -2967,7 +2964,7 @@
         <v>44050</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
@@ -2978,7 +2975,7 @@
         <v>44092</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
@@ -2994,30 +2991,30 @@
         <v>4</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="30">
         <v>44046</v>
@@ -3032,7 +3029,7 @@
         <v>44058</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
@@ -3043,7 +3040,7 @@
         <v>44050</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
@@ -3054,7 +3051,7 @@
         <v>44092</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
@@ -3070,30 +3067,30 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="30">
         <v>44046</v>
@@ -3108,7 +3105,7 @@
         <v>44058</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
@@ -3119,7 +3116,7 @@
         <v>44050</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
@@ -3130,7 +3127,7 @@
         <v>44092</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
@@ -3146,30 +3143,30 @@
         <v>6</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="30">
         <v>44046</v>
@@ -3184,7 +3181,7 @@
         <v>44058</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
@@ -3195,7 +3192,7 @@
         <v>44050</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
@@ -3206,7 +3203,7 @@
         <v>44092</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
@@ -3222,30 +3219,30 @@
         <v>7</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="30">
         <v>44046</v>
@@ -3260,7 +3257,7 @@
         <v>44058</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -3271,7 +3268,7 @@
         <v>44050</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -3282,7 +3279,7 @@
         <v>44092</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
@@ -3298,30 +3295,30 @@
         <v>8</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="30">
         <v>44046</v>
@@ -3336,7 +3333,7 @@
         <v>44058</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
@@ -3347,7 +3344,7 @@
         <v>44050</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
@@ -3358,7 +3355,7 @@
         <v>44092</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
@@ -3369,35 +3366,35 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>9</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" s="30">
         <v>44046</v>
@@ -3412,7 +3409,7 @@
         <v>44058</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -3423,7 +3420,7 @@
         <v>44050</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -3434,7 +3431,7 @@
         <v>44092</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
@@ -3445,35 +3442,35 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" s="30">
         <v>44046</v>
@@ -3488,7 +3485,7 @@
         <v>44058</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -3498,8 +3495,8 @@
       <c r="T15" s="30">
         <v>44050</v>
       </c>
-      <c r="U15" s="18" t="s">
-        <v>85</v>
+      <c r="U15" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
@@ -3510,7 +3507,7 @@
         <v>44092</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
@@ -3526,30 +3523,30 @@
         <v>11</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16" s="30">
         <v>44046</v>
@@ -3564,7 +3561,7 @@
         <v>44058</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -3575,7 +3572,7 @@
         <v>44050</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
@@ -3586,7 +3583,7 @@
         <v>44092</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
@@ -3597,35 +3594,35 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>12</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17" s="30">
         <v>44046</v>
@@ -3640,7 +3637,7 @@
         <v>44058</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
@@ -3650,8 +3647,8 @@
       <c r="T17" s="30">
         <v>44050</v>
       </c>
-      <c r="U17" s="18" t="s">
-        <v>96</v>
+      <c r="U17" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
@@ -3662,7 +3659,7 @@
         <v>44092</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
@@ -3673,35 +3670,35 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>13</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L18" s="30">
         <v>44046</v>
@@ -3716,7 +3713,7 @@
         <v>44058</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
@@ -3726,8 +3723,8 @@
       <c r="T18" s="30">
         <v>44050</v>
       </c>
-      <c r="U18" s="18" t="s">
-        <v>96</v>
+      <c r="U18" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
@@ -3738,7 +3735,7 @@
         <v>44092</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
@@ -3749,35 +3746,35 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>14</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" s="30">
         <v>44046</v>
@@ -3792,7 +3789,7 @@
         <v>44058</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
@@ -3803,7 +3800,7 @@
         <v>44050</v>
       </c>
       <c r="U19" s="33" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
@@ -3814,7 +3811,7 @@
         <v>44092</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
@@ -3830,30 +3827,30 @@
         <v>15</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="30">
         <v>44046</v>
@@ -3868,7 +3865,7 @@
         <v>44058</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
@@ -3879,7 +3876,7 @@
         <v>44050</v>
       </c>
       <c r="U20" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -3890,7 +3887,7 @@
         <v>44092</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
@@ -3906,30 +3903,30 @@
         <v>16</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L21" s="30">
         <v>44046</v>
@@ -3944,7 +3941,7 @@
         <v>44058</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
@@ -3955,7 +3952,7 @@
         <v>44050</v>
       </c>
       <c r="U21" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
@@ -3966,7 +3963,7 @@
         <v>44092</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
@@ -3982,30 +3979,30 @@
         <v>17</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L22" s="30">
         <v>44046</v>
@@ -4020,7 +4017,7 @@
         <v>44058</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -4031,7 +4028,7 @@
         <v>44050</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
@@ -4042,7 +4039,7 @@
         <v>44092</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
@@ -4058,30 +4055,30 @@
         <v>18</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="30">
         <v>44046</v>
@@ -4096,7 +4093,7 @@
         <v>44058</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -4107,7 +4104,7 @@
         <v>44050</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
@@ -4118,7 +4115,7 @@
         <v>44092</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
